--- a/va_facility_data_2025-02-20/Colonel Mary Louise Rasmuson Campus of the Alaska VA Healthcare System - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Mary%20Louise%20Rasmuson%20Campus%20of%20the%20Alaska%20VA%20Healthcare%20System%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Colonel Mary Louise Rasmuson Campus of the Alaska VA Healthcare System - Facility Data.xlsx"; filename*=UTF-8''Colonel%20Mary%20Louise%20Rasmuson%20Campus%20of%20the%20Alaska%20VA%20Healthcare%20System%20-%20Facility%20Data.xlsx
@@ -2,11 +2,11 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Effective Care" sheetId="1" r:id="Ree9c587298304c1cb8309116f6c057c0"/>
-    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R362208ad32814eea8b4f2ac66b4af2cc"/>
-    <x:sheet name="Wait Times" sheetId="3" r:id="R877ba5903f474135b64ec4f444b5444f"/>
-    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="Rbdde4232cf024c678c464cd3017d995a"/>
-    <x:sheet name="Outpatient Score" sheetId="5" r:id="R7fbe3f4f1d744ea398d7b57732c65f49"/>
+    <x:sheet name="Effective Care" sheetId="1" r:id="Rd07cd71f2f3846008f0874b8c381b18a"/>
+    <x:sheet name="Veteran-Centered Care" sheetId="2" r:id="R8000727c5534457882af700628efbc0b"/>
+    <x:sheet name="Wait Times" sheetId="3" r:id="R8398364615024255995f72a37a3db39f"/>
+    <x:sheet name="Satisfaction with Care" sheetId="4" r:id="R4973f52c9ede4b6494b590bafbc693d4"/>
+    <x:sheet name="Outpatient Score" sheetId="5" r:id="Rea2f3c81ae7b4babb332d81f83c80a31"/>
   </x:sheets>
 </x:workbook>
 </file>
